--- a/results/sampled_results/faultproneness_sampled_sumary.xlsx
+++ b/results/sampled_results/faultproneness_sampled_sumary.xlsx
@@ -359,9 +359,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -433,16 +432,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -465,7 +460,7 @@
   </sheetPr>
   <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B109" activeCellId="0" sqref="B109"/>
     </sheetView>
   </sheetViews>
@@ -1666,14 +1661,14 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="A109" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B109" s="0" t="n">
+      <c r="B109" s="1" t="n">
         <f aca="false">SUM(B2:B108)</f>
         <v>309</v>
       </c>
-      <c r="C109" s="2" t="n">
+      <c r="C109" s="1" t="n">
         <f aca="false">SUM(C2:C108)</f>
         <v>2693</v>
       </c>

--- a/results/sampled_results/faultproneness_sampled_sumary.xlsx
+++ b/results/sampled_results/faultproneness_sampled_sumary.xlsx
@@ -367,6 +367,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -388,6 +389,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -460,8 +462,8 @@
   </sheetPr>
   <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B109" activeCellId="0" sqref="B109"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C109" activeCellId="0" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -906,10 +908,10 @@
         <v>41</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>2279</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1666,11 +1668,11 @@
       </c>
       <c r="B109" s="1" t="n">
         <f aca="false">SUM(B2:B108)</f>
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="C109" s="1" t="n">
         <f aca="false">SUM(C2:C108)</f>
-        <v>2693</v>
+        <v>2272</v>
       </c>
     </row>
   </sheetData>

--- a/results/sampled_results/faultproneness_sampled_sumary.xlsx
+++ b/results/sampled_results/faultproneness_sampled_sumary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t xml:space="preserve">Project</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">Number of classes tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage</t>
   </si>
   <si>
     <t xml:space="preserve">ADIL</t>
@@ -359,8 +362,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -434,12 +438,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -460,10 +468,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C109" activeCellId="0" sqref="C109"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B111" activeCellId="0" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -471,7 +479,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -484,1195 +493,1630 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <f aca="false">B2/C2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <f aca="false">B3/C3</f>
+        <v>0.166666666666667</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="C4" s="0" t="n">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <f aca="false">B4/C4</f>
+        <v>0.227272727272727</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>5</v>
+        <v>154</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <f aca="false">B5/C5</f>
+        <v>0.162337662337662</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <f aca="false">B6/C6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <f aca="false">B7/C7</f>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>2</v>
+        <v>61</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <f aca="false">B8/C8</f>
+        <v>0.0655737704918033</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <f aca="false">B9/C9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <f aca="false">B10/C10</f>
+        <v>0.0555555555555556</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <f aca="false">B11/C11</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <f aca="false">B12/C12</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <f aca="false">B13/C13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <f aca="false">B14/C14</f>
+        <v>0.117647058823529</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <f aca="false">B15/C15</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>20</v>
+        <v>85</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <f aca="false">B16/C16</f>
+        <v>0.141176470588235</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <f aca="false">B17/C17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <f aca="false">B18/C18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <f aca="false">B19/C19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <f aca="false">B20/C20</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>4</v>
+        <v>31</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <f aca="false">B21/C21</f>
+        <v>0.161290322580645</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <f aca="false">B22/C22</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>6</v>
+        <v>220</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <f aca="false">B23/C23</f>
+        <v>0.00454545454545455</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <f aca="false">B24/C24</f>
+        <v>0.857142857142857</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <f aca="false">B25/C25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <f aca="false">B26/C26</f>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <f aca="false">B27/C27</f>
+        <v>0.230769230769231</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C28" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>4</v>
+      <c r="D28" s="2" t="n">
+        <f aca="false">B28/C28</f>
+        <v>0.275862068965517</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <f aca="false">B29/C29</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <f aca="false">B30/C30</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <f aca="false">B31/C31</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>6</v>
+        <v>165</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <f aca="false">B32/C32</f>
+        <v>0.0727272727272727</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <f aca="false">B33/C33</f>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>51</v>
+        <v>235</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <f aca="false">B34/C34</f>
+        <v>0.0553191489361702</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <f aca="false">B35/C35</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <f aca="false">B36/C36</f>
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <f aca="false">B37/C37</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <f aca="false">B38/C38</f>
+        <v>0.0555555555555556</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <f aca="false">B39/C39</f>
+        <v>0.142857142857143</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>1858</v>
+        <v>604</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <f aca="false">B40/C40</f>
+        <v>0.135761589403974</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <f aca="false">B41/C41</f>
+        <v>0.375</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <f aca="false">B42/C42</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <f aca="false">B43/C43</f>
+        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C44" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <f aca="false">B44/C44</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>3</v>
+        <v>144</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <f aca="false">B45/C45</f>
+        <v>0.194444444444444</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <f aca="false">B46/C46</f>
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>44</v>
+        <v>164</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <f aca="false">B47/C47</f>
+        <v>0.0609756097560976</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <f aca="false">B48/C48</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <f aca="false">B49/C49</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <f aca="false">B50/C50</f>
+        <v>0.166666666666667</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <f aca="false">B51/C51</f>
+        <v>0.782608695652174</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <f aca="false">B52/C52</f>
+        <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <f aca="false">B53/C53</f>
+        <v>0.142857142857143</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <f aca="false">B54/C54</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <f aca="false">B55/C55</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>4</v>
+        <v>79</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <f aca="false">B56/C56</f>
+        <v>0.0126582278481013</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>4</v>
+        <v>45</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <f aca="false">B57/C57</f>
+        <v>0.133333333333333</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <f aca="false">B58/C58</f>
+        <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <f aca="false">B59/C59</f>
+        <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <f aca="false">B60/C60</f>
+        <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>7</v>
+        <v>63</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <f aca="false">B61/C61</f>
+        <v>0.158730158730159</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>9</v>
+        <v>156</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <f aca="false">B62/C62</f>
+        <v>0.16025641025641</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <f aca="false">B63/C63</f>
+        <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>19</v>
+        <v>40</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <f aca="false">B64/C64</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <f aca="false">B65/C65</f>
+        <v>0.08</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>8</v>
+        <v>161</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <f aca="false">B66/C66</f>
+        <v>0.0372670807453416</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <f aca="false">B67/C67</f>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>4</v>
+        <v>188</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <f aca="false">B68/C68</f>
+        <v>0.101063829787234</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <f aca="false">B69/C69</f>
+        <v>0.625</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>4</v>
+        <v>29</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <f aca="false">B70/C70</f>
+        <v>0.137931034482759</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <f aca="false">B71/C71</f>
+        <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <f aca="false">B72/C72</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C73" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <f aca="false">B73/C73</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>19</v>
+        <v>133</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <f aca="false">B74/C74</f>
+        <v>0.0225563909774436</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>4</v>
+        <v>248</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <f aca="false">B75/C75</f>
+        <v>0.116935483870968</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <f aca="false">B76/C76</f>
+        <v>0.64</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>7</v>
+        <v>37</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <f aca="false">B77/C77</f>
+        <v>0.0540540540540541</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>17</v>
+        <v>33</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <f aca="false">B78/C78</f>
+        <v>0.0909090909090909</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>18</v>
+        <v>124</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <f aca="false">B79/C79</f>
+        <v>0.258064516129032</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <f aca="false">B80/C80</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <f aca="false">B81/C81</f>
+        <v>0.166666666666667</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <f aca="false">B82/C82</f>
+        <v>0.294117647058823</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <f aca="false">B83/C83</f>
+        <v>0.0909090909090909</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <f aca="false">B84/C84</f>
+        <v>0.230769230769231</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C85" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <f aca="false">B85/C85</f>
         <v>0</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <f aca="false">B86/C86</f>
+        <v>0.294117647058823</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <f aca="false">B87/C87</f>
+        <v>0</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <f aca="false">B88/C88</f>
+        <v>0</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>1</v>
+        <v>196</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <f aca="false">B89/C89</f>
+        <v>0</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <f aca="false">B90/C90</f>
+        <v>0</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <f aca="false">B91/C91</f>
+        <v>0.125</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C92" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <f aca="false">B92/C92</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <f aca="false">B93/C93</f>
+        <v>0</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>4</v>
+        <v>52</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <f aca="false">B94/C94</f>
+        <v>0.115384615384615</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <f aca="false">B95/C95</f>
+        <v>0</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <f aca="false">B96/C96</f>
+        <v>0.0384615384615385</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <f aca="false">B97/C97</f>
+        <v>0.4</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C98" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <f aca="false">B98/C98</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <f aca="false">B99/C99</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <f aca="false">B100/C100</f>
+        <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C101" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <f aca="false">B101/C101</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <f aca="false">B102/C102</f>
+        <v>0.346153846153846</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <f aca="false">B103/C103</f>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <f aca="false">B104/C104</f>
+        <v>0</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C105" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <f aca="false">B105/C105</f>
         <v>0</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <f aca="false">B106/C106</f>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <f aca="false">B107/C107</f>
+        <v>0</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <f aca="false">B108/C108</f>
+        <v>0.269230769230769</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B109" s="1" t="n">
         <f aca="false">SUM(B2:B108)</f>
-        <v>264</v>
+        <v>499</v>
       </c>
       <c r="C109" s="1" t="n">
         <f aca="false">SUM(C2:C108)</f>
-        <v>2272</v>
+        <v>4186</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <f aca="false">B109/C109</f>
+        <v>0.119206880076445</v>
       </c>
     </row>
   </sheetData>

--- a/results/sampled_results/faultproneness_sampled_sumary.xlsx
+++ b/results/sampled_results/faultproneness_sampled_sumary.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="112">
   <si>
     <t xml:space="preserve">Project</t>
   </si>
@@ -470,8 +471,8 @@
   </sheetPr>
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B111" activeCellId="0" sqref="B111"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -892,14 +893,14 @@
         <v>30</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>29</v>
       </c>
       <c r="D28" s="2" t="n">
         <f aca="false">B28/C28</f>
-        <v>0.275862068965517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -955,11 +956,11 @@
         <v>12</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D32" s="2" t="n">
         <f aca="false">B32/C32</f>
-        <v>0.0727272727272727</v>
+        <v>0.072289156626506</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -982,14 +983,14 @@
         <v>36</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>235</v>
+        <v>471</v>
       </c>
       <c r="D34" s="2" t="n">
         <f aca="false">B34/C34</f>
-        <v>0.0553191489361702</v>
+        <v>0.0233545647558386</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1072,14 +1073,14 @@
         <v>42</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>604</v>
+        <v>107</v>
       </c>
       <c r="D40" s="2" t="n">
         <f aca="false">B40/C40</f>
-        <v>0.135761589403974</v>
+        <v>0.411214953271028</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1177,14 +1178,14 @@
         <v>49</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>164</v>
       </c>
       <c r="D47" s="2" t="n">
         <f aca="false">B47/C47</f>
-        <v>0.0609756097560976</v>
+        <v>0.0121951219512195</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1402,14 +1403,14 @@
         <v>64</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>156</v>
       </c>
       <c r="D62" s="2" t="n">
         <f aca="false">B62/C62</f>
-        <v>0.16025641025641</v>
+        <v>0.141025641025641</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1585,11 +1586,11 @@
         <v>3</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>133</v>
+        <v>233</v>
       </c>
       <c r="D74" s="2" t="n">
         <f aca="false">B74/C74</f>
-        <v>0.0225563909774436</v>
+        <v>0.0128755364806867</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1600,11 +1601,11 @@
         <v>29</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>248</v>
+        <v>348</v>
       </c>
       <c r="D75" s="2" t="n">
         <f aca="false">B75/C75</f>
-        <v>0.116935483870968</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1627,14 +1628,14 @@
         <v>79</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>37</v>
       </c>
       <c r="D77" s="2" t="n">
         <f aca="false">B77/C77</f>
-        <v>0.0540540540540541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1810,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>196</v>
+        <v>256</v>
       </c>
       <c r="D89" s="2" t="n">
         <f aca="false">B89/C89</f>
@@ -2108,7 +2109,7 @@
       </c>
       <c r="B109" s="1" t="n">
         <f aca="false">SUM(B2:B108)</f>
-        <v>499</v>
+        <v>438</v>
       </c>
       <c r="C109" s="1" t="n">
         <f aca="false">SUM(C2:C108)</f>
@@ -2116,7 +2117,7 @@
       </c>
       <c r="D109" s="2" t="n">
         <f aca="false">B109/C109</f>
-        <v>0.119206880076445</v>
+        <v>0.104634495938844</v>
       </c>
     </row>
   </sheetData>
@@ -2128,4 +2129,1208 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C107"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>